--- a/biology/Écologie/Steppe_à_genévriers_du_Haut_Atlas_méditerranéen/Steppe_à_genévriers_du_Haut_Atlas_méditerranéen.xlsx
+++ b/biology/Écologie/Steppe_à_genévriers_du_Haut_Atlas_méditerranéen/Steppe_à_genévriers_du_Haut_Atlas_méditerranéen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Steppe_%C3%A0_gen%C3%A9vriers_du_Haut_Atlas_m%C3%A9diterran%C3%A9en</t>
+          <t>Steppe_à_genévriers_du_Haut_Atlas_méditerranéen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Steppe méditerranéenne à genévrier du Haut Atlas est une écorégion de prairies et d'arbustes montagnards au Maroc. Elle s'étend le long de la chaîne du Haut Atlas, dans les montagnes de l'Atlas du nord-ouest de l'Afrique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Steppe méditerranéenne à genévrier du Haut Atlas est une écorégion de prairies et d'arbustes montagnards au Maroc. Elle s'étend le long de la chaîne du Haut Atlas, dans les montagnes de l'Atlas du nord-ouest de l'Afrique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Steppe_%C3%A0_gen%C3%A9vriers_du_Haut_Atlas_m%C3%A9diterran%C3%A9en</t>
+          <t>Steppe_à_genévriers_du_Haut_Atlas_méditerranéen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorégion s'étend de 2700 mètres d'altitude jusqu'à 4167 mètres d'altitude sur le Toubkal, qui est le plus haut sommet d'Afrique du Nord[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorégion s'étend de 2700 mètres d'altitude jusqu'à 4167 mètres d'altitude sur le Toubkal, qui est le plus haut sommet d'Afrique du Nord.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Steppe_%C3%A0_gen%C3%A9vriers_du_Haut_Atlas_m%C3%A9diterran%C3%A9en</t>
+          <t>Steppe_à_genévriers_du_Haut_Atlas_méditerranéen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'écorégion a un climat montagnard tempéré. Les précipitations annuelles moyennes varient de 200 à 600 mm, et jusqu'à 1000 mm dans les zones les plus humides. Les pentes exposées au nord sont généralement plus fraîches et plus humides, et les neiges peuvent persister jusqu'à sept mois au-dessus de 3500 mètres d'altitude. Les pentes exposées au sud sont généralement plus arides, et sont exposées aux vents desséchants du Sahara[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorégion a un climat montagnard tempéré. Les précipitations annuelles moyennes varient de 200 à 600 mm, et jusqu'à 1000 mm dans les zones les plus humides. Les pentes exposées au nord sont généralement plus fraîches et plus humides, et les neiges peuvent persister jusqu'à sept mois au-dessus de 3500 mètres d'altitude. Les pentes exposées au sud sont généralement plus arides, et sont exposées aux vents desséchants du Sahara.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Steppe_%C3%A0_gen%C3%A9vriers_du_Haut_Atlas_m%C3%A9diterran%C3%A9en</t>
+          <t>Steppe_à_genévriers_du_Haut_Atlas_méditerranéen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,12 +589,14 @@
           <t>Flore</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts ouvertes de genévrier (Juniperus thurifera) et de chêne vert à feuilles persistantes (Quercus ilex) sont la communauté végétale caractéristique, s'étendant jusqu'à la limite des arbres à environ 3200 mètres. Le cyprès du Maroc (Cupressus atlantica), en danger critique d'extinction, a été réduit à quelques centaines d'arbres dispersés dans la partie occidentale de l'aire de répartition. Des arbustes épineux et coussinets couvrent le sol, notamment Cytisus balansae, Erinacea anthylis, Prunus prostrata et Astragalus armatus[2].
-Les peuplements plus denses de chênes et de genévriers ont un sous-étage d'arbustes qui aiment l'ombre, notamment Fraxinus dimorpha, Lonicera arborea, Crataegus lacinata, Buxus sempervirens et Berberis vulgaris australis, entrecoupés de grands arbustes Juniperus oxycedrus et Ephedra nebrodensis et de plantes herbacées Cephalantera rubra, Helleborine latifolia, Festuca triflora et Festuca rubra[2].
-Des prairies ouvertes couvrent les lignes de crête, et s'étendent de la limite des arbres jusqu'aux sommets, entrecoupées de zones de roches nues. Ces prairies d'altitude sont adaptées aux vents forts et aux conditions alpines, et comprennent Avena montana, Festuca mairei, Festuca alpina, et Ranunculus geraniifolius[2].
-À plus faible altitude, les forêts de genévriers et de chênes se transforment en forêts de feuillus à feuilles persistantes, qui s'étendent jusqu'à 2800 mètres d'altitude sur les pentes humides exposées au nord, et les forêts de conifères xériques s'étendent de 1500 mètres d'altitude à 3100 mètres sur les pentes plus sèches exposées au sud[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts ouvertes de genévrier (Juniperus thurifera) et de chêne vert à feuilles persistantes (Quercus ilex) sont la communauté végétale caractéristique, s'étendant jusqu'à la limite des arbres à environ 3200 mètres. Le cyprès du Maroc (Cupressus atlantica), en danger critique d'extinction, a été réduit à quelques centaines d'arbres dispersés dans la partie occidentale de l'aire de répartition. Des arbustes épineux et coussinets couvrent le sol, notamment Cytisus balansae, Erinacea anthylis, Prunus prostrata et Astragalus armatus.
+Les peuplements plus denses de chênes et de genévriers ont un sous-étage d'arbustes qui aiment l'ombre, notamment Fraxinus dimorpha, Lonicera arborea, Crataegus lacinata, Buxus sempervirens et Berberis vulgaris australis, entrecoupés de grands arbustes Juniperus oxycedrus et Ephedra nebrodensis et de plantes herbacées Cephalantera rubra, Helleborine latifolia, Festuca triflora et Festuca rubra.
+Des prairies ouvertes couvrent les lignes de crête, et s'étendent de la limite des arbres jusqu'aux sommets, entrecoupées de zones de roches nues. Ces prairies d'altitude sont adaptées aux vents forts et aux conditions alpines, et comprennent Avena montana, Festuca mairei, Festuca alpina, et Ranunculus geraniifolius.
+À plus faible altitude, les forêts de genévriers et de chênes se transforment en forêts de feuillus à feuilles persistantes, qui s'étendent jusqu'à 2800 mètres d'altitude sur les pentes humides exposées au nord, et les forêts de conifères xériques s'étendent de 1500 mètres d'altitude à 3100 mètres sur les pentes plus sèches exposées au sud.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Steppe_%C3%A0_gen%C3%A9vriers_du_Haut_Atlas_m%C3%A9diterran%C3%A9en</t>
+          <t>Steppe_à_genévriers_du_Haut_Atlas_méditerranéen</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Faune</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Haut Atlas abrite le léopard de Barbarie (Pathera pardus panthera) et le mouton de Barbarie (Ammotragus lervia). Parmi les autres mammifères, on trouve le renard roux (Vulpes vulpes), le chacal doré (Canis aureus), le sanglier (Sus scrofa), le spermophile de Barbarie (Atlantoxerus getulus), la mangouste égyptienne (Herpestes ichneumon), le porc-épic à crête (Hystrix cristata) et le putois d'Europe (Mustela putorius)[2].
-Les oiseaux indigènes comprennent l'accenteur alpin (Prunella collaris) et le grive à queue rousse (Monticola saxatilis).[3] Le parc national de Toubkal abrite une population reproductrice de martinet à croupion blanc (Apus caffer), ainsi que le roselin africain (Rhodopechys alienus) et l'alouette marocaine (Eremophila alpestris atlas)[3].
-Les reptiles endémiques du Haut Atlas comprennent le gecko diurne de l'Atlas (Quedenfeldtia trachyblepharus), Quedenfeldtia moerens, le lézard nain de l'Atlas (Lacerta andreanskyi), le scinque de montagne de l'Atlas (Chalcides montanus), et la vipère de montagne de l'Atlas (Vipera monticola)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Haut Atlas abrite le léopard de Barbarie (Pathera pardus panthera) et le mouton de Barbarie (Ammotragus lervia). Parmi les autres mammifères, on trouve le renard roux (Vulpes vulpes), le chacal doré (Canis aureus), le sanglier (Sus scrofa), le spermophile de Barbarie (Atlantoxerus getulus), la mangouste égyptienne (Herpestes ichneumon), le porc-épic à crête (Hystrix cristata) et le putois d'Europe (Mustela putorius).
+Les oiseaux indigènes comprennent l'accenteur alpin (Prunella collaris) et le grive à queue rousse (Monticola saxatilis). Le parc national de Toubkal abrite une population reproductrice de martinet à croupion blanc (Apus caffer), ainsi que le roselin africain (Rhodopechys alienus) et l'alouette marocaine (Eremophila alpestris atlas).
+Les reptiles endémiques du Haut Atlas comprennent le gecko diurne de l'Atlas (Quedenfeldtia trachyblepharus), Quedenfeldtia moerens, le lézard nain de l'Atlas (Lacerta andreanskyi), le scinque de montagne de l'Atlas (Chalcides montanus), et la vipère de montagne de l'Atlas (Vipera monticola).
 </t>
         </is>
       </c>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Steppe_%C3%A0_gen%C3%A9vriers_du_Haut_Atlas_m%C3%A9diterran%C3%A9en</t>
+          <t>Steppe_à_genévriers_du_Haut_Atlas_méditerranéen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Zones protégées</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les zones protégées comprennent le parc national du Toubkal et le parc national du Haut Atlas Oriental.
 </t>
